--- a/ExperimentationRSAST/ds_runned_rsast.xlsx
+++ b/ExperimentationRSAST/ds_runned_rsast.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="161">
   <si>
     <t>Name</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FacesUCR</t>
   </si>
   <si>
+    <t>FiftyWords</t>
+  </si>
+  <si>
     <t>Fungi</t>
   </si>
   <si>
@@ -241,6 +244,9 @@
     <t>200</t>
   </si>
   <si>
+    <t>450</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
@@ -331,6 +337,9 @@
     <t>2050</t>
   </si>
   <si>
+    <t>455</t>
+  </si>
+  <si>
     <t>186</t>
   </si>
   <si>
@@ -452,6 +461,9 @@
   </si>
   <si>
     <t>131</t>
+  </si>
+  <si>
+    <t>270</t>
   </si>
   <si>
     <t>201</t>
@@ -842,7 +854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -870,71 +882,71 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>1308</v>
+        <v>1332</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>1512</v>
+        <v>1536</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -945,88 +957,88 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>732</v>
+        <v>756</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1037,65 +1049,65 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>1152</v>
+        <v>1176</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1106,88 +1118,88 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1198,70 +1210,70 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>1272</v>
+        <v>1296</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>1188</v>
+        <v>216</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>360</v>
+        <v>1212</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -1270,389 +1282,389 @@
         <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>504</v>
+        <v>372</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>156</v>
+        <v>528</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>1020</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G23" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>48</v>
+        <v>1044</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>1452</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G25" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>0</v>
+        <v>1476</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F26" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G26" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
         <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G27" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>672</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G28" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F29" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G29" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>336</v>
+        <v>708</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G30" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>624</v>
+        <v>348</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="F31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G31" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
-        <v>180</v>
+        <v>648</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G32" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G33" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
         <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G34" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>276</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
         <v>115</v>
       </c>
       <c r="F35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G35" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>420</v>
+        <v>288</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
@@ -1661,113 +1673,113 @@
         <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F36" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G36" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1">
-        <v>324</v>
+        <v>444</v>
       </c>
       <c r="B37" t="s">
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G37" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1">
-        <v>192</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F38" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G38" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E39" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F39" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G39" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1">
-        <v>312</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F40" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G40" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1">
-        <v>792</v>
+        <v>324</v>
       </c>
       <c r="B41" t="s">
         <v>45</v>
@@ -1776,131 +1788,154 @@
         <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="F41" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G41" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1">
-        <v>60</v>
+        <v>816</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="E42" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="F42" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G42" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F43" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G43" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E44" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F44" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G44" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E45" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F45" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G45" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E46" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F46" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>240</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" t="s">
         <v>127</v>
       </c>
-      <c r="G46" t="s">
-        <v>156</v>
+      <c r="F47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentationRSAST/ds_runned_rsast.xlsx
+++ b/ExperimentationRSAST/ds_runned_rsast.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="181">
   <si>
     <t>Name</t>
   </si>
@@ -52,6 +52,18 @@
     <t>ChlorineConcentration</t>
   </si>
   <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>CricketX</t>
+  </si>
+  <si>
+    <t>CricketY</t>
+  </si>
+  <si>
+    <t>CricketZ</t>
+  </si>
+  <si>
     <t>Crop</t>
   </si>
   <si>
@@ -85,6 +97,9 @@
     <t>FiftyWords</t>
   </si>
   <si>
+    <t>FreezerSmallTrain</t>
+  </si>
+  <si>
     <t>Fungi</t>
   </si>
   <si>
@@ -157,6 +172,12 @@
     <t>SyntheticControl</t>
   </si>
   <si>
+    <t>ToeSegmentation1</t>
+  </si>
+  <si>
+    <t>Trace</t>
+  </si>
+  <si>
     <t>TwoLeadECG</t>
   </si>
   <si>
@@ -172,6 +193,9 @@
     <t>Wine</t>
   </si>
   <si>
+    <t>WordSynonyms</t>
+  </si>
+  <si>
     <t>Image</t>
   </si>
   <si>
@@ -184,6 +208,12 @@
     <t>Sensor</t>
   </si>
   <si>
+    <t>Spectro</t>
+  </si>
+  <si>
+    <t>Motion</t>
+  </si>
+  <si>
     <t>ECG</t>
   </si>
   <si>
@@ -193,15 +223,9 @@
     <t>HRM</t>
   </si>
   <si>
-    <t>Motion</t>
-  </si>
-  <si>
     <t>Power</t>
   </si>
   <si>
-    <t>Spectro</t>
-  </si>
-  <si>
     <t>390</t>
   </si>
   <si>
@@ -217,6 +241,9 @@
     <t>467</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>7200</t>
   </si>
   <si>
@@ -292,12 +319,18 @@
     <t>300</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>1000</t>
   </si>
   <si>
     <t>57</t>
   </si>
   <si>
+    <t>267</t>
+  </si>
+  <si>
     <t>391</t>
   </si>
   <si>
@@ -340,6 +373,9 @@
     <t>455</t>
   </si>
   <si>
+    <t>2850</t>
+  </si>
+  <si>
     <t>186</t>
   </si>
   <si>
@@ -385,6 +421,9 @@
     <t>625</t>
   </si>
   <si>
+    <t>228</t>
+  </si>
+  <si>
     <t>1139</t>
   </si>
   <si>
@@ -400,6 +439,9 @@
     <t>54</t>
   </si>
   <si>
+    <t>638</t>
+  </si>
+  <si>
     <t>37</t>
   </si>
   <si>
@@ -409,6 +451,9 @@
     <t>2</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -436,6 +481,9 @@
     <t>4</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>176</t>
   </si>
   <si>
@@ -448,6 +496,9 @@
     <t>166</t>
   </si>
   <si>
+    <t>286</t>
+  </si>
+  <si>
     <t>46</t>
   </si>
   <si>
@@ -466,6 +517,9 @@
     <t>270</t>
   </si>
   <si>
+    <t>301</t>
+  </si>
+  <si>
     <t>201</t>
   </si>
   <si>
@@ -488,6 +542,12 @@
   </si>
   <si>
     <t>60</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>275</t>
   </si>
   <si>
     <t>82</t>
@@ -854,7 +914,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -882,720 +942,720 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>600</v>
+        <v>708</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>1332</v>
+        <v>1572</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>1536</v>
+        <v>1812</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G4" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G5" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>576</v>
+        <v>684</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>492</v>
+        <v>600</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>756</v>
+        <v>792</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>24</v>
+        <v>576</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" t="s">
         <v>100</v>
-      </c>
-      <c r="F9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>636</v>
+        <v>264</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G10" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>1176</v>
+        <v>564</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" t="s">
         <v>100</v>
-      </c>
-      <c r="F11" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>36</v>
+        <v>900</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>360</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>552</v>
+        <v>744</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>504</v>
+        <v>1380</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>1296</v>
+        <v>432</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="G17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>216</v>
+        <v>660</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="G18" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>1212</v>
+        <v>612</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="G19" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>372</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="G20" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>528</v>
+        <v>1512</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>156</v>
+        <v>276</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G23" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>1044</v>
+        <v>1416</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F24" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>48</v>
+        <v>444</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G25" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>1476</v>
+        <v>636</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F26" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G26" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G27" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G28" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>696</v>
+        <v>1224</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="G29" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>708</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G30" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>348</v>
+        <v>1728</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="G31" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="F32" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G32" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
@@ -1604,105 +1664,105 @@
         <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="F33" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G33" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>204</v>
+        <v>840</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F34" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="G34" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>72</v>
+        <v>852</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="F35" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G35" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>288</v>
+        <v>420</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="E36" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F36" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G36" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1">
-        <v>444</v>
+        <v>756</v>
       </c>
       <c r="B37" t="s">
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F37" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="G37" t="s">
         <v>138</v>
@@ -1710,214 +1770,214 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1">
-        <v>336</v>
+        <v>216</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="F38" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G38" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F39" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G39" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F40" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G40" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="B41" t="s">
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F41" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G41" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1">
-        <v>816</v>
+        <v>516</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F42" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1">
-        <v>60</v>
+        <v>408</v>
       </c>
       <c r="B43" t="s">
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E43" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F43" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G43" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1">
-        <v>96</v>
+        <v>228</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D44" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E44" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F44" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G44" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E45" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F45" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G45" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1">
-        <v>12</v>
+        <v>396</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F46" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="G46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1">
-        <v>240</v>
+        <v>984</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
@@ -1926,16 +1986,200 @@
         <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="F47" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="G47" t="s">
-        <v>160</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>108</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" t="s">
+        <v>135</v>
+      </c>
+      <c r="F48" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>300</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49" t="s">
+        <v>154</v>
+      </c>
+      <c r="G49" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>72</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>120</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" t="s">
+        <v>154</v>
+      </c>
+      <c r="G51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>144</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" t="s">
+        <v>144</v>
+      </c>
+      <c r="G53" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>312</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" t="s">
+        <v>140</v>
+      </c>
+      <c r="F54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>132</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" t="s">
+        <v>141</v>
+      </c>
+      <c r="F55" t="s">
+        <v>155</v>
+      </c>
+      <c r="G55" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentationRSAST/ds_runned_rsast.xlsx
+++ b/ExperimentationRSAST/ds_runned_rsast.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="194">
   <si>
     <t>Name</t>
   </si>
@@ -67,6 +67,9 @@
     <t>Crop</t>
   </si>
   <si>
+    <t>DiatomSizeReduction</t>
+  </si>
+  <si>
     <t>DistalPhalanxOutlineAgeGroup</t>
   </si>
   <si>
@@ -91,12 +94,18 @@
     <t>FaceAll</t>
   </si>
   <si>
+    <t>FaceFour</t>
+  </si>
+  <si>
     <t>FacesUCR</t>
   </si>
   <si>
     <t>FiftyWords</t>
   </si>
   <si>
+    <t>FreezerRegularTrain</t>
+  </si>
+  <si>
     <t>FreezerSmallTrain</t>
   </si>
   <si>
@@ -169,12 +178,18 @@
     <t>SwedishLeaf</t>
   </si>
   <si>
+    <t>Symbols</t>
+  </si>
+  <si>
     <t>SyntheticControl</t>
   </si>
   <si>
     <t>ToeSegmentation1</t>
   </si>
   <si>
+    <t>ToeSegmentation2</t>
+  </si>
+  <si>
     <t>Trace</t>
   </si>
   <si>
@@ -247,6 +262,9 @@
     <t>7200</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>400</t>
   </si>
   <si>
@@ -268,12 +286,18 @@
     <t>560</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>200</t>
   </si>
   <si>
     <t>450</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
@@ -307,15 +331,15 @@
     <t>180</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
     <t>613</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>300</t>
   </si>
   <si>
@@ -349,6 +373,9 @@
     <t>16800</t>
   </si>
   <si>
+    <t>306</t>
+  </si>
+  <si>
     <t>139</t>
   </si>
   <si>
@@ -367,6 +394,9 @@
     <t>1690</t>
   </si>
   <si>
+    <t>88</t>
+  </si>
+  <si>
     <t>2050</t>
   </si>
   <si>
@@ -421,9 +451,15 @@
     <t>625</t>
   </si>
   <si>
+    <t>995</t>
+  </si>
+  <si>
     <t>228</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>1139</t>
   </si>
   <si>
@@ -454,7 +490,7 @@
     <t>12</t>
   </si>
   <si>
-    <t>24</t>
+    <t>4</t>
   </si>
   <si>
     <t>6</t>
@@ -478,12 +514,6 @@
     <t>15</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>176</t>
   </si>
   <si>
@@ -502,6 +532,9 @@
     <t>46</t>
   </si>
   <si>
+    <t>345</t>
+  </si>
+  <si>
     <t>80</t>
   </si>
   <si>
@@ -514,6 +547,9 @@
     <t>131</t>
   </si>
   <si>
+    <t>350</t>
+  </si>
+  <si>
     <t>270</t>
   </si>
   <si>
@@ -539,6 +575,9 @@
   </si>
   <si>
     <t>235</t>
+  </si>
+  <si>
+    <t>398</t>
   </si>
   <si>
     <t>60</t>
@@ -914,7 +953,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -942,988 +981,988 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>708</v>
+        <v>780</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>1572</v>
+        <v>1728</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>1812</v>
+        <v>1968</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>684</v>
+        <v>756</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G6" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>600</v>
+        <v>672</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>792</v>
+        <v>864</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>576</v>
+        <v>648</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>564</v>
+        <v>636</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>900</v>
+        <v>972</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>36</v>
+        <v>612</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>744</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>1380</v>
+        <v>816</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>48</v>
+        <v>1500</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>432</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>660</v>
+        <v>492</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F18" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>612</v>
+        <v>732</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>168</v>
+        <v>684</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="G20" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>1512</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F21" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>276</v>
+        <v>396</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="G22" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>12</v>
+        <v>1656</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="G23" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>1416</v>
+        <v>300</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>444</v>
+        <v>312</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="F25" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>636</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F26" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G26" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>192</v>
+        <v>1536</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F27" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>204</v>
+        <v>504</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G28" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>1224</v>
+        <v>708</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G29" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F30" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G30" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>1728</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F31" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G31" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
-        <v>0</v>
+        <v>1344</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F32" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
-        <v>324</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F33" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G33" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>840</v>
+        <v>1884</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F34" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="G34" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>852</v>
+        <v>0</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E35" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F35" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="G35" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F36" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G36" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1">
-        <v>756</v>
+        <v>912</v>
       </c>
       <c r="B37" t="s">
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E37" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="F37" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G37" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1">
-        <v>216</v>
+        <v>924</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E38" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="F38" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G38" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="E39" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F39" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="G39" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1">
-        <v>84</v>
+        <v>828</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="E40" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="F40" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G40" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1">
-        <v>360</v>
+        <v>228</v>
       </c>
       <c r="B41" t="s">
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="E41" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="F41" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G41" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1">
-        <v>516</v>
+        <v>252</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="F42" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G42" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1">
-        <v>408</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F43" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1">
-        <v>228</v>
+        <v>408</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E44" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F44" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G44" t="s">
         <v>173</v>
@@ -1931,255 +1970,370 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1">
-        <v>156</v>
+        <v>576</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E45" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="F45" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="G45" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1">
-        <v>396</v>
+        <v>468</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E46" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F46" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G46" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1">
-        <v>984</v>
+        <v>240</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E47" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="F47" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G47" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D48" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F48" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G48" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1">
-        <v>300</v>
+        <v>456</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E49" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="F49" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="G49" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1">
-        <v>72</v>
+        <v>1212</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D50" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="E50" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F50" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G50" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1">
-        <v>120</v>
+        <v>1056</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E51" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="F51" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G51" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B52" t="s">
         <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="E52" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F52" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="G52" t="s">
-        <v>97</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
         <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D53" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E53" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F53" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G53" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="B54" t="s">
         <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D54" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="E54" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="F54" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G54" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="B55" t="s">
         <v>59</v>
       </c>
       <c r="C55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55" t="s">
+        <v>156</v>
+      </c>
+      <c r="G55" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>132</v>
+      </c>
+      <c r="B56" t="s">
         <v>60</v>
       </c>
-      <c r="D55" t="s">
-        <v>104</v>
-      </c>
-      <c r="E55" t="s">
-        <v>141</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="C56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" t="s">
+        <v>110</v>
+      </c>
+      <c r="E56" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" t="s">
+        <v>158</v>
+      </c>
+      <c r="G56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>156</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" t="s">
+        <v>150</v>
+      </c>
+      <c r="F57" t="s">
         <v>155</v>
       </c>
-      <c r="G55" t="s">
-        <v>166</v>
+      <c r="G57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" t="s">
+        <v>156</v>
+      </c>
+      <c r="G58" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>348</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" t="s">
+        <v>152</v>
+      </c>
+      <c r="F59" t="s">
+        <v>156</v>
+      </c>
+      <c r="G59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>144</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" t="s">
+        <v>153</v>
+      </c>
+      <c r="F60" t="s">
+        <v>107</v>
+      </c>
+      <c r="G60" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentationRSAST/ds_runned_rsast.xlsx
+++ b/ExperimentationRSAST/ds_runned_rsast.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="211">
   <si>
     <t>Name</t>
   </si>
@@ -49,6 +49,15 @@
     <t>BME</t>
   </si>
   <si>
+    <t>Beef</t>
+  </si>
+  <si>
+    <t>BeetleFly</t>
+  </si>
+  <si>
+    <t>BirdChicken</t>
+  </si>
+  <si>
     <t>CBF</t>
   </si>
   <si>
@@ -94,6 +103,9 @@
     <t>ECGFiveDays</t>
   </si>
   <si>
+    <t>Earthquakes</t>
+  </si>
+  <si>
     <t>ElectricDevices</t>
   </si>
   <si>
@@ -130,12 +142,21 @@
     <t>GunPointOldVersusYoung</t>
   </si>
   <si>
+    <t>Ham</t>
+  </si>
+  <si>
+    <t>Herring</t>
+  </si>
+  <si>
     <t>InsectWingbeatSound</t>
   </si>
   <si>
     <t>ItalyPowerDemand</t>
   </si>
   <si>
+    <t>Meat</t>
+  </si>
+  <si>
     <t>MedicalImages</t>
   </si>
   <si>
@@ -169,6 +190,9 @@
     <t>ProximalPhalanxTW</t>
   </si>
   <si>
+    <t>ShapeletSim</t>
+  </si>
+  <si>
     <t>SmoothSubspace</t>
   </si>
   <si>
@@ -223,15 +247,15 @@
     <t>Simulated</t>
   </si>
   <si>
+    <t>Spectro</t>
+  </si>
+  <si>
     <t>Traffic</t>
   </si>
   <si>
     <t>Sensor</t>
   </si>
   <si>
-    <t>Spectro</t>
-  </si>
-  <si>
     <t>Motion</t>
   </si>
   <si>
@@ -286,6 +310,9 @@
     <t>23</t>
   </si>
   <si>
+    <t>322</t>
+  </si>
+  <si>
     <t>8926</t>
   </si>
   <si>
@@ -316,12 +343,21 @@
     <t>136</t>
   </si>
   <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
     <t>220</t>
   </si>
   <si>
     <t>67</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>381</t>
   </si>
   <si>
@@ -490,6 +526,9 @@
     <t>3</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -502,9 +541,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -529,6 +565,12 @@
     <t>128</t>
   </si>
   <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
     <t>166</t>
   </si>
   <si>
@@ -565,9 +607,15 @@
     <t>201</t>
   </si>
   <si>
+    <t>431</t>
+  </si>
+  <si>
     <t>256</t>
   </si>
   <si>
+    <t>448</t>
+  </si>
+  <si>
     <t>99</t>
   </si>
   <si>
@@ -584,9 +632,6 @@
   </si>
   <si>
     <t>398</t>
-  </si>
-  <si>
-    <t>60</t>
   </si>
   <si>
     <t>277</t>
@@ -959,7 +1004,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1011,19 +1056,19 @@
         <v>0.61</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="I2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="J2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1043,19 +1088,19 @@
         <v>0.75</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="I3" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="J3" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1075,19 +1120,19 @@
         <v>0.83</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I4" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="J4" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1098,28 +1143,28 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>0.99</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D5">
-        <v>0.99</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E5">
-        <v>0.99</v>
+        <v>0.66</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="J5" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1130,28 +1175,28 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>0.98</v>
+        <v>0.78</v>
       </c>
       <c r="D6">
-        <v>0.98</v>
+        <v>0.78</v>
       </c>
       <c r="E6">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="I6" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="J6" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1162,28 +1207,28 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="D7">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="E7">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="J7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1194,28 +1239,28 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="I8" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="J8" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1226,28 +1271,28 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="D9">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="E9">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="I9" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1258,28 +1303,28 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="D10">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="I10" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1290,28 +1335,28 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1322,28 +1367,28 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="D12">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="E12">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="J12" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1354,28 +1399,28 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>0.95</v>
+        <v>0.77</v>
       </c>
       <c r="D13">
-        <v>0.95</v>
+        <v>0.77</v>
       </c>
       <c r="E13">
-        <v>0.95</v>
+        <v>0.71</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="J13" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1386,28 +1431,28 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>0.72</v>
+        <v>0.79</v>
       </c>
       <c r="D14">
-        <v>0.72</v>
+        <v>0.79</v>
       </c>
       <c r="E14">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s">
         <v>85</v>
       </c>
       <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
+        <v>172</v>
+      </c>
+      <c r="J14" t="s">
         <v>122</v>
-      </c>
-      <c r="I14" t="s">
-        <v>157</v>
-      </c>
-      <c r="J14" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1418,28 +1463,28 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="D15">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="E15">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="J15" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1450,28 +1495,28 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>0.61</v>
+        <v>0.95</v>
       </c>
       <c r="D16">
-        <v>0.61</v>
+        <v>0.95</v>
       </c>
       <c r="E16">
-        <v>0.64</v>
+        <v>0.95</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="J16" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1482,28 +1527,28 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>0.89</v>
+        <v>0.72</v>
       </c>
       <c r="D17">
-        <v>0.89</v>
+        <v>0.72</v>
       </c>
       <c r="E17">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1514,28 +1559,28 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>0.9399999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="D18">
-        <v>0.9399999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="E18">
-        <v>0.93</v>
+        <v>0.72</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H18" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1546,28 +1591,28 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="E19">
-        <v>0.79</v>
+        <v>0.64</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H19" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="J19" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1578,28 +1623,28 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>0.41</v>
+        <v>0.89</v>
       </c>
       <c r="D20">
-        <v>0.41</v>
+        <v>0.89</v>
       </c>
       <c r="E20">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="J20" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1610,28 +1655,28 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D21">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E21">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H21" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="I21" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="J21" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1648,22 +1693,22 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H22" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="I22" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="J22" t="s">
-        <v>179</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1674,28 +1719,28 @@
         <v>29</v>
       </c>
       <c r="C23">
-        <v>0.96</v>
+        <v>0.71</v>
       </c>
       <c r="D23">
-        <v>0.96</v>
+        <v>0.71</v>
       </c>
       <c r="E23">
-        <v>0.95</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H23" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I23" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="J23" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1706,28 +1751,28 @@
         <v>30</v>
       </c>
       <c r="C24">
-        <v>0.77</v>
+        <v>0.41</v>
       </c>
       <c r="D24">
-        <v>0.77</v>
+        <v>0.41</v>
       </c>
       <c r="E24">
-        <v>0.76</v>
+        <v>0.65</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H24" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="I24" t="s">
-        <v>97</v>
+        <v>175</v>
       </c>
       <c r="J24" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1738,28 +1783,28 @@
         <v>31</v>
       </c>
       <c r="C25">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="D25">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="E25">
-        <v>0.97</v>
+        <v>0.77</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H25" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I25" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="J25" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1770,28 +1815,28 @@
         <v>32</v>
       </c>
       <c r="C26">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="H26" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="I26" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="J26" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1802,28 +1847,28 @@
         <v>33</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F27" t="s">
         <v>75</v>
       </c>
       <c r="G27" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H27" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I27" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="J27" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1834,28 +1879,28 @@
         <v>34</v>
       </c>
       <c r="C28">
-        <v>0.97</v>
+        <v>0.77</v>
       </c>
       <c r="D28">
-        <v>0.97</v>
+        <v>0.77</v>
       </c>
       <c r="E28">
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H28" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="I28" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="J28" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1872,22 +1917,22 @@
         <v>0.97</v>
       </c>
       <c r="E29">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="I29" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="J29" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1898,28 +1943,28 @@
         <v>36</v>
       </c>
       <c r="C30">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="D30">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="E30">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="I30" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="J30" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1930,28 +1975,28 @@
         <v>37</v>
       </c>
       <c r="C31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H31" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="I31" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="J31" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1962,28 +2007,28 @@
         <v>38</v>
       </c>
       <c r="C32">
-        <v>0.54</v>
+        <v>0.97</v>
       </c>
       <c r="D32">
-        <v>0.54</v>
+        <v>0.97</v>
       </c>
       <c r="E32">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H32" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="I32" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="J32" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1994,28 +2039,28 @@
         <v>39</v>
       </c>
       <c r="C33">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="D33">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="E33">
         <v>0.9399999999999999</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H33" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="I33" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="J33" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2026,28 +2071,28 @@
         <v>40</v>
       </c>
       <c r="C34">
-        <v>0.66</v>
+        <v>0.99</v>
       </c>
       <c r="D34">
-        <v>0.66</v>
+        <v>0.99</v>
       </c>
       <c r="E34">
-        <v>0.57</v>
+        <v>0.96</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H34" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="I34" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="J34" t="s">
-        <v>184</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2058,28 +2103,28 @@
         <v>41</v>
       </c>
       <c r="C35">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="D35">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="E35">
-        <v>0.54</v>
+        <v>0.92</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="H35" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="I35" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="J35" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2090,28 +2135,28 @@
         <v>42</v>
       </c>
       <c r="C36">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="D36">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="E36">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="H36" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="I36" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="J36" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2122,28 +2167,28 @@
         <v>43</v>
       </c>
       <c r="C37">
-        <v>0.54</v>
+        <v>0.67</v>
       </c>
       <c r="D37">
-        <v>0.54</v>
+        <v>0.67</v>
       </c>
       <c r="E37">
-        <v>0.53</v>
+        <v>0.61</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H37" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="I37" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J37" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2154,28 +2199,28 @@
         <v>44</v>
       </c>
       <c r="C38">
-        <v>0.89</v>
+        <v>0.54</v>
       </c>
       <c r="D38">
-        <v>0.89</v>
+        <v>0.54</v>
       </c>
       <c r="E38">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I38" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="J38" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2186,28 +2231,28 @@
         <v>45</v>
       </c>
       <c r="C39">
-        <v>0.79</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D39">
-        <v>0.79</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E39">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F39" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="H39" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="I39" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="J39" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2218,28 +2263,28 @@
         <v>46</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H40" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I40" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="J40" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2250,28 +2295,28 @@
         <v>47</v>
       </c>
       <c r="C41">
-        <v>0.86</v>
+        <v>0.66</v>
       </c>
       <c r="D41">
-        <v>0.86</v>
+        <v>0.66</v>
       </c>
       <c r="E41">
-        <v>0.83</v>
+        <v>0.57</v>
       </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G41" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H41" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="I41" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="J41" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2282,28 +2327,28 @@
         <v>48</v>
       </c>
       <c r="C42">
-        <v>0.8100000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="D42">
-        <v>0.8100000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="E42">
-        <v>0.84</v>
+        <v>0.54</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H42" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="I42" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="J42" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2314,28 +2359,28 @@
         <v>49</v>
       </c>
       <c r="C43">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
       <c r="D43">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
       <c r="E43">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H43" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="I43" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="J43" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2346,28 +2391,28 @@
         <v>50</v>
       </c>
       <c r="C44">
-        <v>0.78</v>
+        <v>0.54</v>
       </c>
       <c r="D44">
-        <v>0.78</v>
+        <v>0.54</v>
       </c>
       <c r="E44">
-        <v>0.78</v>
+        <v>0.53</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="H44" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="I44" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="J44" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2378,28 +2423,28 @@
         <v>51</v>
       </c>
       <c r="C45">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="D45">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="E45">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="I45" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="J45" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2410,28 +2455,28 @@
         <v>52</v>
       </c>
       <c r="C46">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="D46">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="E46">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="F46" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="H46" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="I46" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="J46" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2442,28 +2487,28 @@
         <v>53</v>
       </c>
       <c r="C47">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H47" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="I47" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="J47" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2474,28 +2519,28 @@
         <v>54</v>
       </c>
       <c r="C48">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="D48">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="E48">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F48" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="H48" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="I48" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="J48" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2506,28 +2551,28 @@
         <v>55</v>
       </c>
       <c r="C49">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D49">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E49">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H49" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="I49" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J49" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2538,25 +2583,25 @@
         <v>56</v>
       </c>
       <c r="C50">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="D50">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="E50">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G50" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="H50" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I50" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J50" t="s">
         <v>189</v>
@@ -2570,28 +2615,28 @@
         <v>57</v>
       </c>
       <c r="C51">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="D51">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="E51">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="H51" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="I51" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="J51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2602,28 +2647,28 @@
         <v>58</v>
       </c>
       <c r="C52">
+        <v>0.88</v>
+      </c>
+      <c r="D52">
+        <v>0.88</v>
+      </c>
+      <c r="E52">
         <v>0.89</v>
       </c>
-      <c r="D52">
-        <v>0.89</v>
-      </c>
-      <c r="E52">
-        <v>0.87</v>
-      </c>
       <c r="F52" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="I52" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="J52" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2634,28 +2679,28 @@
         <v>59</v>
       </c>
       <c r="C53">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="D53">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="E53">
-        <v>0.89</v>
+        <v>0.71</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="H53" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="I53" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="J53" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2666,28 +2711,28 @@
         <v>60</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F54" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="I54" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="J54" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2698,28 +2743,28 @@
         <v>61</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E55">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="F55" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="H55" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I55" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="J55" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2730,28 +2775,28 @@
         <v>62</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="E56">
         <v>0.95</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="H56" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I56" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="J56" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2762,28 +2807,28 @@
         <v>63</v>
       </c>
       <c r="C57">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="D57">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="E57">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G57" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="H57" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I57" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="J57" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2794,28 +2839,28 @@
         <v>64</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F58" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G58" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H58" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I58" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="J58" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2826,28 +2871,28 @@
         <v>65</v>
       </c>
       <c r="C59">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="D59">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="E59">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="F59" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s">
+        <v>122</v>
+      </c>
+      <c r="H59" t="s">
+        <v>122</v>
+      </c>
+      <c r="I59" t="s">
+        <v>174</v>
+      </c>
+      <c r="J59" t="s">
         <v>113</v>
-      </c>
-      <c r="H59" t="s">
-        <v>154</v>
-      </c>
-      <c r="I59" t="s">
-        <v>158</v>
-      </c>
-      <c r="J59" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2858,28 +2903,284 @@
         <v>66</v>
       </c>
       <c r="C60">
+        <v>0.89</v>
+      </c>
+      <c r="D60">
+        <v>0.89</v>
+      </c>
+      <c r="E60">
+        <v>0.87</v>
+      </c>
+      <c r="F60" t="s">
+        <v>80</v>
+      </c>
+      <c r="G60" t="s">
+        <v>123</v>
+      </c>
+      <c r="H60" t="s">
+        <v>160</v>
+      </c>
+      <c r="I60" t="s">
+        <v>171</v>
+      </c>
+      <c r="J60" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61">
+        <v>0.9</v>
+      </c>
+      <c r="D61">
+        <v>0.9</v>
+      </c>
+      <c r="E61">
+        <v>0.89</v>
+      </c>
+      <c r="F61" t="s">
+        <v>80</v>
+      </c>
+      <c r="G61" t="s">
+        <v>86</v>
+      </c>
+      <c r="H61" t="s">
+        <v>161</v>
+      </c>
+      <c r="I61" t="s">
+        <v>171</v>
+      </c>
+      <c r="J61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62" t="s">
+        <v>95</v>
+      </c>
+      <c r="H62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I62" t="s">
+        <v>173</v>
+      </c>
+      <c r="J62" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0.93</v>
+      </c>
+      <c r="F63" t="s">
+        <v>81</v>
+      </c>
+      <c r="G63" t="s">
+        <v>97</v>
+      </c>
+      <c r="H63" t="s">
+        <v>162</v>
+      </c>
+      <c r="I63" t="s">
+        <v>171</v>
+      </c>
+      <c r="J63" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0.95</v>
+      </c>
+      <c r="F64" t="s">
+        <v>76</v>
+      </c>
+      <c r="G64" t="s">
+        <v>124</v>
+      </c>
+      <c r="H64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I64" t="s">
+        <v>173</v>
+      </c>
+      <c r="J64" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65">
+        <v>0.98</v>
+      </c>
+      <c r="D65">
+        <v>0.98</v>
+      </c>
+      <c r="E65">
+        <v>0.93</v>
+      </c>
+      <c r="F65" t="s">
+        <v>76</v>
+      </c>
+      <c r="G65" t="s">
+        <v>86</v>
+      </c>
+      <c r="H65" t="s">
+        <v>164</v>
+      </c>
+      <c r="I65" t="s">
+        <v>169</v>
+      </c>
+      <c r="J65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s">
+        <v>124</v>
+      </c>
+      <c r="H66" t="s">
+        <v>165</v>
+      </c>
+      <c r="I66" t="s">
+        <v>171</v>
+      </c>
+      <c r="J66" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67">
+        <v>0.78</v>
+      </c>
+      <c r="D67">
+        <v>0.78</v>
+      </c>
+      <c r="E67">
+        <v>0.78</v>
+      </c>
+      <c r="F67" t="s">
+        <v>77</v>
+      </c>
+      <c r="G67" t="s">
+        <v>125</v>
+      </c>
+      <c r="H67" t="s">
+        <v>166</v>
+      </c>
+      <c r="I67" t="s">
+        <v>171</v>
+      </c>
+      <c r="J67" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68">
         <v>0.68</v>
       </c>
-      <c r="D60">
+      <c r="D68">
         <v>0.68</v>
       </c>
-      <c r="E60">
+      <c r="E68">
         <v>0.67</v>
       </c>
-      <c r="F60" t="s">
-        <v>67</v>
-      </c>
-      <c r="G60" t="s">
-        <v>114</v>
-      </c>
-      <c r="H60" t="s">
-        <v>155</v>
-      </c>
-      <c r="I60" t="s">
-        <v>109</v>
-      </c>
-      <c r="J60" t="s">
-        <v>180</v>
+      <c r="F68" t="s">
+        <v>75</v>
+      </c>
+      <c r="G68" t="s">
+        <v>126</v>
+      </c>
+      <c r="H68" t="s">
+        <v>167</v>
+      </c>
+      <c r="I68" t="s">
+        <v>121</v>
+      </c>
+      <c r="J68" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentationRSAST/ds_runned_rsast.xlsx
+++ b/ExperimentationRSAST/ds_runned_rsast.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="219">
   <si>
     <t>Name</t>
   </si>
@@ -61,6 +61,9 @@
     <t>CBF</t>
   </si>
   <si>
+    <t>Car</t>
+  </si>
+  <si>
     <t>Chinatown</t>
   </si>
   <si>
@@ -94,6 +97,15 @@
     <t>DistalPhalanxTW</t>
   </si>
   <si>
+    <t>DodgerLoopDay</t>
+  </si>
+  <si>
+    <t>DodgerLoopGame</t>
+  </si>
+  <si>
+    <t>DodgerLoopWeekend</t>
+  </si>
+  <si>
     <t>ECG200</t>
   </si>
   <si>
@@ -250,12 +262,12 @@
     <t>Spectro</t>
   </si>
   <si>
+    <t>Sensor</t>
+  </si>
+  <si>
     <t>Traffic</t>
   </si>
   <si>
-    <t>Sensor</t>
-  </si>
-  <si>
     <t>Motion</t>
   </si>
   <si>
@@ -283,6 +295,9 @@
     <t>20</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>467</t>
   </si>
   <si>
@@ -301,6 +316,9 @@
     <t>600</t>
   </si>
   <si>
+    <t>78</t>
+  </si>
+  <si>
     <t>100</t>
   </si>
   <si>
@@ -355,9 +373,6 @@
     <t>67</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>381</t>
   </si>
   <si>
@@ -424,6 +439,12 @@
     <t>276</t>
   </si>
   <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
     <t>4500</t>
   </si>
   <si>
@@ -532,12 +553,12 @@
     <t>2</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -571,6 +592,9 @@
     <t>512</t>
   </si>
   <si>
+    <t>577</t>
+  </si>
+  <si>
     <t>166</t>
   </si>
   <si>
@@ -583,7 +607,7 @@
     <t>345</t>
   </si>
   <si>
-    <t>80</t>
+    <t>288</t>
   </si>
   <si>
     <t>96</t>
@@ -1004,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1056,19 +1080,19 @@
         <v>0.61</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="J2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1088,19 +1112,19 @@
         <v>0.75</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="J3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1120,19 +1144,19 @@
         <v>0.83</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="J4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1152,19 +1176,19 @@
         <v>0.66</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I5" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="J5" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1184,19 +1208,19 @@
         <v>0.8</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I6" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J6" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1216,19 +1240,19 @@
         <v>0.77</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1248,19 +1272,19 @@
         <v>0.99</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I8" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="J8" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1271,28 +1295,28 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>0.98</v>
+        <v>0.84</v>
       </c>
       <c r="D9">
-        <v>0.98</v>
+        <v>0.84</v>
       </c>
       <c r="E9">
-        <v>0.96</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I9" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1303,28 +1327,28 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="D10">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="E10">
-        <v>0.7</v>
+        <v>0.96</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I10" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="J10" t="s">
-        <v>185</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1335,28 +1359,28 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="I11" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J11" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1367,28 +1391,28 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="I12" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1399,28 +1423,28 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="D13">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="E13">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I13" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1431,28 +1455,28 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="D14">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="E14">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1463,28 +1487,28 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
       <c r="D15">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
       <c r="E15">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="J15" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1495,28 +1519,28 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>0.95</v>
+        <v>0.71</v>
       </c>
       <c r="D16">
-        <v>0.95</v>
+        <v>0.71</v>
       </c>
       <c r="E16">
-        <v>0.95</v>
+        <v>0.71</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H16" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I16" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="J16" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1527,28 +1551,28 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>0.72</v>
+        <v>0.95</v>
       </c>
       <c r="D17">
-        <v>0.72</v>
+        <v>0.95</v>
       </c>
       <c r="E17">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H17" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="J17" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1559,28 +1583,28 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="D18">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="E18">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H18" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J18" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1591,28 +1615,28 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="D19">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="E19">
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H19" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1623,28 +1647,28 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>0.89</v>
+        <v>0.61</v>
       </c>
       <c r="D20">
-        <v>0.89</v>
+        <v>0.61</v>
       </c>
       <c r="E20">
-        <v>0.85</v>
+        <v>0.64</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H20" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="J20" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1655,28 +1679,28 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>0.9399999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="D21">
-        <v>0.9399999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="E21">
-        <v>0.93</v>
+        <v>0.54</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H21" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I21" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="J21" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1687,28 +1711,28 @@
         <v>28</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="E22">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="I22" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J22" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1719,28 +1743,28 @@
         <v>29</v>
       </c>
       <c r="C23">
-        <v>0.71</v>
+        <v>0.96</v>
       </c>
       <c r="D23">
-        <v>0.71</v>
+        <v>0.96</v>
       </c>
       <c r="E23">
-        <v>0.6899999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="I23" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1751,28 +1775,28 @@
         <v>30</v>
       </c>
       <c r="C24">
-        <v>0.41</v>
+        <v>0.89</v>
       </c>
       <c r="D24">
-        <v>0.41</v>
+        <v>0.89</v>
       </c>
       <c r="E24">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H24" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="I24" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J24" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1783,28 +1807,28 @@
         <v>31</v>
       </c>
       <c r="C25">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D25">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E25">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H25" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J25" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1821,22 +1845,22 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I26" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="J26" t="s">
-        <v>193</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1847,28 +1871,28 @@
         <v>33</v>
       </c>
       <c r="C27">
-        <v>0.96</v>
+        <v>0.71</v>
       </c>
       <c r="D27">
-        <v>0.96</v>
+        <v>0.71</v>
       </c>
       <c r="E27">
-        <v>0.95</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1879,28 +1903,28 @@
         <v>34</v>
       </c>
       <c r="C28">
-        <v>0.77</v>
+        <v>0.41</v>
       </c>
       <c r="D28">
-        <v>0.77</v>
+        <v>0.41</v>
       </c>
       <c r="E28">
-        <v>0.76</v>
+        <v>0.65</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H28" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I28" t="s">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="J28" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1911,28 +1935,28 @@
         <v>35</v>
       </c>
       <c r="C29">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="D29">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="E29">
-        <v>0.97</v>
+        <v>0.77</v>
       </c>
       <c r="F29" t="s">
         <v>79</v>
       </c>
       <c r="G29" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I29" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="J29" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1943,28 +1967,28 @@
         <v>36</v>
       </c>
       <c r="C30">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>79</v>
       </c>
       <c r="G30" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="H30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I30" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="J30" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1975,28 +1999,28 @@
         <v>37</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H31" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I31" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="J31" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2007,28 +2031,28 @@
         <v>38</v>
       </c>
       <c r="C32">
-        <v>0.97</v>
+        <v>0.77</v>
       </c>
       <c r="D32">
-        <v>0.97</v>
+        <v>0.77</v>
       </c>
       <c r="E32">
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H32" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="I32" t="s">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="J32" t="s">
-        <v>104</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2045,22 +2069,22 @@
         <v>0.97</v>
       </c>
       <c r="E33">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H33" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I33" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J33" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2071,28 +2095,28 @@
         <v>40</v>
       </c>
       <c r="C34">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="D34">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="E34">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H34" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I34" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J34" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2103,28 +2127,28 @@
         <v>41</v>
       </c>
       <c r="C35">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H35" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I35" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="J35" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2135,28 +2159,28 @@
         <v>42</v>
       </c>
       <c r="C36">
-        <v>0.76</v>
+        <v>0.97</v>
       </c>
       <c r="D36">
-        <v>0.76</v>
+        <v>0.97</v>
       </c>
       <c r="E36">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H36" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I36" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J36" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2167,28 +2191,28 @@
         <v>43</v>
       </c>
       <c r="C37">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="D37">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="E37">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s">
+        <v>113</v>
+      </c>
+      <c r="H37" t="s">
+        <v>152</v>
+      </c>
+      <c r="I37" t="s">
+        <v>178</v>
+      </c>
+      <c r="J37" t="s">
         <v>110</v>
-      </c>
-      <c r="H37" t="s">
-        <v>110</v>
-      </c>
-      <c r="I37" t="s">
-        <v>171</v>
-      </c>
-      <c r="J37" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2199,28 +2223,28 @@
         <v>44</v>
       </c>
       <c r="C38">
-        <v>0.54</v>
+        <v>0.99</v>
       </c>
       <c r="D38">
-        <v>0.54</v>
+        <v>0.99</v>
       </c>
       <c r="E38">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="F38" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H38" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I38" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J38" t="s">
-        <v>198</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2231,28 +2255,28 @@
         <v>45</v>
       </c>
       <c r="C39">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="D39">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="E39">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F39" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H39" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I39" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J39" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2263,28 +2287,28 @@
         <v>46</v>
       </c>
       <c r="C40">
-        <v>0.96</v>
+        <v>0.76</v>
       </c>
       <c r="D40">
-        <v>0.96</v>
+        <v>0.76</v>
       </c>
       <c r="E40">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F40" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H40" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="J40" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2295,28 +2319,28 @@
         <v>47</v>
       </c>
       <c r="C41">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="D41">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E41">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
       <c r="F41" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H41" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="I41" t="s">
         <v>178</v>
       </c>
       <c r="J41" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2327,28 +2351,28 @@
         <v>48</v>
       </c>
       <c r="C42">
+        <v>0.54</v>
+      </c>
+      <c r="D42">
+        <v>0.54</v>
+      </c>
+      <c r="E42">
         <v>0.5</v>
       </c>
-      <c r="D42">
-        <v>0.5</v>
-      </c>
-      <c r="E42">
-        <v>0.54</v>
-      </c>
       <c r="F42" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="H42" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I42" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="J42" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2359,28 +2383,28 @@
         <v>49</v>
       </c>
       <c r="C43">
-        <v>0.79</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D43">
-        <v>0.79</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E43">
-        <v>0.79</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F43" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="H43" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I43" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J43" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2391,28 +2415,28 @@
         <v>50</v>
       </c>
       <c r="C44">
-        <v>0.54</v>
+        <v>0.96</v>
       </c>
       <c r="D44">
-        <v>0.54</v>
+        <v>0.96</v>
       </c>
       <c r="E44">
-        <v>0.53</v>
+        <v>0.93</v>
       </c>
       <c r="F44" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="I44" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J44" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2423,28 +2447,28 @@
         <v>51</v>
       </c>
       <c r="C45">
-        <v>0.89</v>
+        <v>0.66</v>
       </c>
       <c r="D45">
-        <v>0.89</v>
+        <v>0.66</v>
       </c>
       <c r="E45">
-        <v>0.8</v>
+        <v>0.57</v>
       </c>
       <c r="F45" t="s">
         <v>79</v>
       </c>
       <c r="G45" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="H45" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I45" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="J45" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2455,28 +2479,28 @@
         <v>52</v>
       </c>
       <c r="C46">
-        <v>0.79</v>
+        <v>0.5</v>
       </c>
       <c r="D46">
-        <v>0.79</v>
+        <v>0.5</v>
       </c>
       <c r="E46">
-        <v>0.78</v>
+        <v>0.54</v>
       </c>
       <c r="F46" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="H46" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I46" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J46" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2487,28 +2511,28 @@
         <v>53</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="F47" t="s">
         <v>79</v>
       </c>
       <c r="G47" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="H47" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="I47" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J47" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2519,28 +2543,28 @@
         <v>54</v>
       </c>
       <c r="C48">
-        <v>0.86</v>
+        <v>0.54</v>
       </c>
       <c r="D48">
-        <v>0.86</v>
+        <v>0.54</v>
       </c>
       <c r="E48">
-        <v>0.83</v>
+        <v>0.53</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H48" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="I48" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="J48" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2551,28 +2575,28 @@
         <v>55</v>
       </c>
       <c r="C49">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="D49">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="E49">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="F49" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H49" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I49" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="J49" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2583,28 +2607,28 @@
         <v>56</v>
       </c>
       <c r="C50">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
       <c r="D50">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
       <c r="E50">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
       <c r="F50" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="H50" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I50" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J50" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2615,28 +2639,28 @@
         <v>57</v>
       </c>
       <c r="C51">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="H51" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="I51" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="J51" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2647,28 +2671,28 @@
         <v>58</v>
       </c>
       <c r="C52">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="D52">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="E52">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F52" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="H52" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I52" t="s">
+        <v>178</v>
+      </c>
+      <c r="J52" t="s">
         <v>171</v>
-      </c>
-      <c r="J52" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2679,28 +2703,28 @@
         <v>59</v>
       </c>
       <c r="C53">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D53">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E53">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
       <c r="F53" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H53" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="I53" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="J53" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2711,28 +2735,28 @@
         <v>60</v>
       </c>
       <c r="C54">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="D54">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="E54">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="F54" t="s">
         <v>79</v>
       </c>
       <c r="G54" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="H54" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I54" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J54" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2743,28 +2767,28 @@
         <v>61</v>
       </c>
       <c r="C55">
-        <v>0.9</v>
+        <v>0.78</v>
       </c>
       <c r="D55">
-        <v>0.9</v>
+        <v>0.78</v>
       </c>
       <c r="E55">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
       <c r="F55" t="s">
         <v>79</v>
       </c>
       <c r="G55" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="H55" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I55" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="J55" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2775,28 +2799,28 @@
         <v>62</v>
       </c>
       <c r="C56">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="D56">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="E56">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F56" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="H56" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="I56" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J56" t="s">
-        <v>204</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2807,28 +2831,28 @@
         <v>63</v>
       </c>
       <c r="C57">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="D57">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="E57">
-        <v>0.85</v>
+        <v>0.71</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="H57" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="I57" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J57" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2839,28 +2863,28 @@
         <v>64</v>
       </c>
       <c r="C58">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="D58">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="E58">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F58" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G58" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="H58" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I58" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="J58" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2871,28 +2895,28 @@
         <v>65</v>
       </c>
       <c r="C59">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="D59">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="E59">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F59" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G59" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H59" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="I59" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="J59" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2903,28 +2927,28 @@
         <v>66</v>
       </c>
       <c r="C60">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="D60">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="E60">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="F60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G60" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H60" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I60" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J60" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2935,28 +2959,28 @@
         <v>67</v>
       </c>
       <c r="C61">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="D61">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="E61">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="H61" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I61" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="J61" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2967,28 +2991,28 @@
         <v>68</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F62" t="s">
         <v>79</v>
       </c>
       <c r="G62" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="H62" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="I62" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="J62" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2999,28 +3023,28 @@
         <v>69</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="E63">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G63" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="H63" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="I63" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="J63" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3031,28 +3055,28 @@
         <v>70</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="E64">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="F64" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G64" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H64" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I64" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="J64" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3063,28 +3087,28 @@
         <v>71</v>
       </c>
       <c r="C65">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="D65">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="E65">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F65" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G65" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I65" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="J65" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3104,19 +3128,19 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G66" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="H66" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="I66" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="J66" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3127,28 +3151,28 @@
         <v>73</v>
       </c>
       <c r="C67">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>0.78</v>
+        <v>0.93</v>
       </c>
       <c r="F67" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G67" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="H67" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I67" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J67" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3159,28 +3183,156 @@
         <v>74</v>
       </c>
       <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0.95</v>
+      </c>
+      <c r="F68" t="s">
+        <v>80</v>
+      </c>
+      <c r="G68" t="s">
+        <v>129</v>
+      </c>
+      <c r="H68" t="s">
+        <v>170</v>
+      </c>
+      <c r="I68" t="s">
+        <v>179</v>
+      </c>
+      <c r="J68" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69">
+        <v>0.98</v>
+      </c>
+      <c r="D69">
+        <v>0.98</v>
+      </c>
+      <c r="E69">
+        <v>0.93</v>
+      </c>
+      <c r="F69" t="s">
+        <v>80</v>
+      </c>
+      <c r="G69" t="s">
+        <v>90</v>
+      </c>
+      <c r="H69" t="s">
+        <v>171</v>
+      </c>
+      <c r="I69" t="s">
+        <v>176</v>
+      </c>
+      <c r="J69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>82</v>
+      </c>
+      <c r="G70" t="s">
+        <v>129</v>
+      </c>
+      <c r="H70" t="s">
+        <v>172</v>
+      </c>
+      <c r="I70" t="s">
+        <v>178</v>
+      </c>
+      <c r="J70" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71">
+        <v>0.78</v>
+      </c>
+      <c r="D71">
+        <v>0.78</v>
+      </c>
+      <c r="E71">
+        <v>0.78</v>
+      </c>
+      <c r="F71" t="s">
+        <v>81</v>
+      </c>
+      <c r="G71" t="s">
+        <v>130</v>
+      </c>
+      <c r="H71" t="s">
+        <v>173</v>
+      </c>
+      <c r="I71" t="s">
+        <v>178</v>
+      </c>
+      <c r="J71" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72">
         <v>0.68</v>
       </c>
-      <c r="D68">
+      <c r="D72">
         <v>0.68</v>
       </c>
-      <c r="E68">
+      <c r="E72">
         <v>0.67</v>
       </c>
-      <c r="F68" t="s">
-        <v>75</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="F72" t="s">
+        <v>79</v>
+      </c>
+      <c r="G72" t="s">
+        <v>131</v>
+      </c>
+      <c r="H72" t="s">
+        <v>174</v>
+      </c>
+      <c r="I72" t="s">
         <v>126</v>
       </c>
-      <c r="H68" t="s">
-        <v>167</v>
-      </c>
-      <c r="I68" t="s">
-        <v>121</v>
-      </c>
-      <c r="J68" t="s">
-        <v>194</v>
+      <c r="J72" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentationRSAST/ds_runned_rsast.xlsx
+++ b/ExperimentationRSAST/ds_runned_rsast.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="213">
   <si>
     <t>Name</t>
   </si>
@@ -97,15 +97,6 @@
     <t>DistalPhalanxTW</t>
   </si>
   <si>
-    <t>DodgerLoopDay</t>
-  </si>
-  <si>
-    <t>DodgerLoopGame</t>
-  </si>
-  <si>
-    <t>DodgerLoopWeekend</t>
-  </si>
-  <si>
     <t>ECG200</t>
   </si>
   <si>
@@ -316,9 +307,6 @@
     <t>600</t>
   </si>
   <si>
-    <t>78</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
@@ -439,175 +427,169 @@
     <t>276</t>
   </si>
   <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>861</t>
+  </si>
+  <si>
+    <t>7711</t>
+  </si>
+  <si>
+    <t>1690</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>455</t>
+  </si>
+  <si>
+    <t>2850</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1029</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>1252</t>
+  </si>
+  <si>
+    <t>858</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>953</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>625</t>
+  </si>
+  <si>
+    <t>995</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>1139</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>6164</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>638</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>577</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
     <t>80</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>4500</t>
-  </si>
-  <si>
-    <t>861</t>
-  </si>
-  <si>
-    <t>7711</t>
-  </si>
-  <si>
-    <t>1690</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>455</t>
-  </si>
-  <si>
-    <t>2850</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>1029</t>
-  </si>
-  <si>
-    <t>760</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>1252</t>
-  </si>
-  <si>
-    <t>858</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>601</t>
-  </si>
-  <si>
-    <t>953</t>
-  </si>
-  <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>625</t>
-  </si>
-  <si>
-    <t>995</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>1139</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>6164</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>638</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>577</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>286</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>288</t>
   </si>
   <si>
     <t>96</t>
@@ -1028,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1080,19 +1062,19 @@
         <v>0.61</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1112,19 +1094,19 @@
         <v>0.75</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1144,19 +1126,19 @@
         <v>0.83</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1176,19 +1158,19 @@
         <v>0.66</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="J5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1208,19 +1190,19 @@
         <v>0.8</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1240,19 +1222,19 @@
         <v>0.77</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1272,19 +1254,19 @@
         <v>0.99</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1304,19 +1286,19 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1336,19 +1318,19 @@
         <v>0.96</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I10" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1368,19 +1350,19 @@
         <v>0.7</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I11" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J11" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1400,19 +1382,19 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J12" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1432,19 +1414,19 @@
         <v>0.75</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I13" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1464,19 +1446,19 @@
         <v>0.71</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1496,19 +1478,19 @@
         <v>0.74</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I15" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1528,19 +1510,19 @@
         <v>0.71</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J16" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1560,19 +1542,19 @@
         <v>0.95</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J17" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1592,19 +1574,19 @@
         <v>0.75</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1624,19 +1606,19 @@
         <v>0.72</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J19" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1656,19 +1638,19 @@
         <v>0.64</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="J20" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1679,28 +1661,28 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>0.57</v>
+        <v>0.89</v>
       </c>
       <c r="D21">
-        <v>0.57</v>
+        <v>0.89</v>
       </c>
       <c r="E21">
-        <v>0.54</v>
+        <v>0.85</v>
       </c>
       <c r="F21" t="s">
         <v>82</v>
       </c>
       <c r="G21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H21" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="I21" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="J21" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1711,28 +1693,28 @@
         <v>28</v>
       </c>
       <c r="C22">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D22">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E22">
-        <v>0.84</v>
+        <v>0.93</v>
       </c>
       <c r="F22" t="s">
         <v>82</v>
       </c>
       <c r="G22" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H22" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I22" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J22" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1743,28 +1725,28 @@
         <v>29</v>
       </c>
       <c r="C23">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0.97</v>
+        <v>0.79</v>
       </c>
       <c r="F23" t="s">
         <v>82</v>
       </c>
       <c r="G23" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H23" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I23" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J23" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1775,28 +1757,28 @@
         <v>30</v>
       </c>
       <c r="C24">
-        <v>0.89</v>
+        <v>0.71</v>
       </c>
       <c r="D24">
-        <v>0.89</v>
+        <v>0.71</v>
       </c>
       <c r="E24">
-        <v>0.85</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H24" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="I24" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J24" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1807,28 +1789,28 @@
         <v>31</v>
       </c>
       <c r="C25">
-        <v>0.9399999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="D25">
-        <v>0.9399999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="E25">
-        <v>0.93</v>
+        <v>0.65</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J25" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1839,28 +1821,28 @@
         <v>32</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="E26">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H26" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J26" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1871,28 +1853,28 @@
         <v>33</v>
       </c>
       <c r="C27">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>0.6899999999999999</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I27" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J27" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1903,28 +1885,28 @@
         <v>34</v>
       </c>
       <c r="C28">
-        <v>0.41</v>
+        <v>0.96</v>
       </c>
       <c r="D28">
-        <v>0.41</v>
+        <v>0.96</v>
       </c>
       <c r="E28">
-        <v>0.65</v>
+        <v>0.95</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I28" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="J28" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1935,28 +1917,28 @@
         <v>35</v>
       </c>
       <c r="C29">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="D29">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="E29">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I29" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="J29" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1967,28 +1949,28 @@
         <v>36</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="F30" t="s">
         <v>79</v>
       </c>
       <c r="G30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I30" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J30" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1999,28 +1981,28 @@
         <v>37</v>
       </c>
       <c r="C31">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="D31">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="E31">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="F31" t="s">
         <v>79</v>
       </c>
       <c r="G31" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I31" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="J31" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2031,28 +2013,28 @@
         <v>38</v>
       </c>
       <c r="C32">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H32" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I32" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J32" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2069,22 +2051,22 @@
         <v>0.97</v>
       </c>
       <c r="E33">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H33" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="I33" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J33" t="s">
-        <v>203</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2095,28 +2077,28 @@
         <v>40</v>
       </c>
       <c r="C34">
-        <v>0.85</v>
+        <v>0.97</v>
       </c>
       <c r="D34">
-        <v>0.85</v>
+        <v>0.97</v>
       </c>
       <c r="E34">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="H34" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I34" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J34" t="s">
-        <v>203</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2127,28 +2109,28 @@
         <v>41</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H35" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I35" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="J35" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2165,22 +2147,22 @@
         <v>0.97</v>
       </c>
       <c r="E36">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H36" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="I36" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J36" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2191,28 +2173,28 @@
         <v>43</v>
       </c>
       <c r="C37">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
       <c r="D37">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
       <c r="E37">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F37" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H37" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="I37" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J37" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2223,28 +2205,28 @@
         <v>44</v>
       </c>
       <c r="C38">
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
       <c r="D38">
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
       <c r="E38">
-        <v>0.96</v>
+        <v>0.61</v>
       </c>
       <c r="F38" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H38" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="I38" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J38" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2255,28 +2237,28 @@
         <v>45</v>
       </c>
       <c r="C39">
-        <v>0.97</v>
+        <v>0.54</v>
       </c>
       <c r="D39">
-        <v>0.97</v>
+        <v>0.54</v>
       </c>
       <c r="E39">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H39" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I39" t="s">
         <v>178</v>
       </c>
       <c r="J39" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2287,28 +2269,28 @@
         <v>46</v>
       </c>
       <c r="C40">
-        <v>0.76</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D40">
-        <v>0.76</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E40">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H40" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="I40" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J40" t="s">
-        <v>205</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2319,28 +2301,28 @@
         <v>47</v>
       </c>
       <c r="C41">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="D41">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="E41">
-        <v>0.61</v>
+        <v>0.93</v>
       </c>
       <c r="F41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="I41" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="J41" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2351,28 +2333,28 @@
         <v>48</v>
       </c>
       <c r="C42">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="D42">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="E42">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H42" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I42" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="J42" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2383,28 +2365,28 @@
         <v>49</v>
       </c>
       <c r="C43">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="D43">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="E43">
-        <v>0.9399999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="H43" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I43" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="J43" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2415,28 +2397,28 @@
         <v>50</v>
       </c>
       <c r="C44">
-        <v>0.96</v>
+        <v>0.79</v>
       </c>
       <c r="D44">
-        <v>0.96</v>
+        <v>0.79</v>
       </c>
       <c r="E44">
-        <v>0.93</v>
+        <v>0.79</v>
       </c>
       <c r="F44" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H44" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="I44" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J44" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2447,28 +2429,28 @@
         <v>51</v>
       </c>
       <c r="C45">
-        <v>0.66</v>
+        <v>0.54</v>
       </c>
       <c r="D45">
-        <v>0.66</v>
+        <v>0.54</v>
       </c>
       <c r="E45">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="F45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H45" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I45" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="J45" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2479,28 +2461,28 @@
         <v>52</v>
       </c>
       <c r="C46">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="D46">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="E46">
-        <v>0.54</v>
+        <v>0.8</v>
       </c>
       <c r="F46" t="s">
         <v>79</v>
       </c>
       <c r="G46" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I46" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J46" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2517,22 +2499,22 @@
         <v>0.79</v>
       </c>
       <c r="E47">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="F47" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="H47" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I47" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J47" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2543,28 +2525,28 @@
         <v>54</v>
       </c>
       <c r="C48">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>79</v>
       </c>
       <c r="G48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H48" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="I48" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="J48" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2575,28 +2557,28 @@
         <v>55</v>
       </c>
       <c r="C49">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="D49">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="E49">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F49" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="H49" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J49" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2607,28 +2589,28 @@
         <v>56</v>
       </c>
       <c r="C50">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D50">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E50">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="F50" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="H50" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I50" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="J50" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2639,28 +2621,28 @@
         <v>57</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="F51" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="H51" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="I51" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="J51" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2671,28 +2653,28 @@
         <v>58</v>
       </c>
       <c r="C52">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="D52">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="E52">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F52" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="H52" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="I52" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J52" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2703,28 +2685,28 @@
         <v>59</v>
       </c>
       <c r="C53">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="D53">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E53">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="F53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s">
+        <v>89</v>
+      </c>
+      <c r="H53" t="s">
+        <v>119</v>
+      </c>
+      <c r="I53" t="s">
+        <v>172</v>
+      </c>
+      <c r="J53" t="s">
         <v>98</v>
-      </c>
-      <c r="H53" t="s">
-        <v>161</v>
-      </c>
-      <c r="I53" t="s">
-        <v>176</v>
-      </c>
-      <c r="J53" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2741,22 +2723,22 @@
         <v>0.87</v>
       </c>
       <c r="E54">
-        <v>0.85</v>
+        <v>0.71</v>
       </c>
       <c r="F54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H54" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="I54" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="J54" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2767,28 +2749,28 @@
         <v>61</v>
       </c>
       <c r="C55">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="D55">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="E55">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F55" t="s">
         <v>79</v>
       </c>
       <c r="G55" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I55" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="J55" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2799,28 +2781,28 @@
         <v>62</v>
       </c>
       <c r="C56">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="D56">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="E56">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="H56" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="I56" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J56" t="s">
-        <v>102</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2831,28 +2813,28 @@
         <v>63</v>
       </c>
       <c r="C57">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="D57">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="E57">
-        <v>0.71</v>
+        <v>0.95</v>
       </c>
       <c r="F57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="H57" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="I57" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J57" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2863,28 +2845,28 @@
         <v>64</v>
       </c>
       <c r="C58">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="D58">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="E58">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="F58" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H58" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I58" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J58" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2895,28 +2877,28 @@
         <v>65</v>
       </c>
       <c r="C59">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D59">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E59">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F59" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H59" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I59" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J59" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2927,28 +2909,28 @@
         <v>66</v>
       </c>
       <c r="C60">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="D60">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="E60">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F60" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H60" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="I60" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J60" t="s">
-        <v>212</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2965,22 +2947,22 @@
         <v>0.89</v>
       </c>
       <c r="E61">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F61" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G61" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="H61" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I61" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="J61" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2991,28 +2973,28 @@
         <v>68</v>
       </c>
       <c r="C62">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="D62">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="E62">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F62" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G62" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I62" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="J62" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3023,28 +3005,28 @@
         <v>69</v>
       </c>
       <c r="C63">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="H63" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="I63" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="J63" t="s">
-        <v>93</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3055,28 +3037,28 @@
         <v>70</v>
       </c>
       <c r="C64">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="F64" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G64" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="H64" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I64" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J64" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3087,28 +3069,28 @@
         <v>71</v>
       </c>
       <c r="C65">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F65" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G65" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="H65" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I65" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J65" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3119,28 +3101,28 @@
         <v>72</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="F66" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G66" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="H66" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="I66" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="J66" t="s">
-        <v>215</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3157,22 +3139,22 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="H67" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I67" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J67" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3183,28 +3165,28 @@
         <v>74</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="E68">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="F68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H68" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I68" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J68" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3215,124 +3197,28 @@
         <v>75</v>
       </c>
       <c r="C69">
-        <v>0.98</v>
+        <v>0.68</v>
       </c>
       <c r="D69">
-        <v>0.98</v>
+        <v>0.68</v>
       </c>
       <c r="E69">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F69" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G69" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="H69" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I69" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="J69" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70" t="s">
-        <v>82</v>
-      </c>
-      <c r="G70" t="s">
-        <v>129</v>
-      </c>
-      <c r="H70" t="s">
-        <v>172</v>
-      </c>
-      <c r="I70" t="s">
-        <v>178</v>
-      </c>
-      <c r="J70" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71">
-        <v>0.78</v>
-      </c>
-      <c r="D71">
-        <v>0.78</v>
-      </c>
-      <c r="E71">
-        <v>0.78</v>
-      </c>
-      <c r="F71" t="s">
-        <v>81</v>
-      </c>
-      <c r="G71" t="s">
-        <v>130</v>
-      </c>
-      <c r="H71" t="s">
-        <v>173</v>
-      </c>
-      <c r="I71" t="s">
-        <v>178</v>
-      </c>
-      <c r="J71" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72">
-        <v>0.68</v>
-      </c>
-      <c r="D72">
-        <v>0.68</v>
-      </c>
-      <c r="E72">
-        <v>0.67</v>
-      </c>
-      <c r="F72" t="s">
-        <v>79</v>
-      </c>
-      <c r="G72" t="s">
-        <v>131</v>
-      </c>
-      <c r="H72" t="s">
-        <v>174</v>
-      </c>
-      <c r="I72" t="s">
-        <v>126</v>
-      </c>
-      <c r="J72" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
